--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-08_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-08_beg.xlsx
@@ -1104,7 +1104,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Stay away from her, Guard! 
+    <t xml:space="preserve">[name="Amiya"]  Stay away from her, Guard! 
 </t>
   </si>
   <si>
@@ -1124,7 +1124,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ursus Infected"]  We’ve had it “tough?” You’re psycho murderers! Sadistic freaks!
+    <t xml:space="preserve">[name="Ursus Infected"]  We’ve had it 'tough?' You’re psycho murderers! Sadistic freaks!
 </t>
   </si>
   <si>
@@ -1144,7 +1144,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ursus Infected"]  What about guerrillas or this so called “Aegis of the Infected?” ...Are they any different from the rest of Reunion?!
+    <t xml:space="preserve">[name="Ursus Infected"]  What about guerrillas or this so called 'Aegis of the Infected?' ...Are they any different from the rest of Reunion?!
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-08_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-08_beg.xlsx
@@ -1084,7 +1084,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ursus Infected"]  You and Reunion have always been on the same side! Isn’t that right?!
+    <t xml:space="preserve">[name="Ursus Infected"]  You and Reunion have always been on the same side! Isn't that right?!
 </t>
   </si>
   <si>
@@ -1092,7 +1092,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ...Tati... Did you find any food? The people in the shelter don’t have long.
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ...Tati... Did you find any food? The people in the shelter don't have long.
 </t>
   </si>
   <si>
@@ -1100,7 +1100,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Let’s get you to someplace safe first.
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Let's get you to someplace safe first.
 </t>
   </si>
   <si>
@@ -1108,7 +1108,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  I’m staying back.
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  I'm staying back.
 </t>
   </si>
   <si>
@@ -1116,7 +1116,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  But we have to be careful. All the Ursus here became Infected of no fault of their own... and they’ve had a tough time.
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  But we have to be careful. All the Ursus here became Infected of no fault of their own... and they've had a tough time.
 </t>
   </si>
   <si>
@@ -1124,23 +1124,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ursus Infected"]  We’ve had it 'tough?' You’re psycho murderers! Sadistic freaks!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ursus Infected"]  Because of you... look what happened to me! Look what I’ve become!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  But if you don’t leave right now, the devils will find you. You’ll be handed over to Reunion.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Patriot’s troops have completely pulled out of this area. If you’re caught, I can’t save you at that point.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ursus Infected"]  Then just let me die! I’d rather die than watch you monsters run rampant!
+    <t xml:space="preserve">[name="Ursus Infected"]  We've had it 'tough?' You're psycho murderers! Sadistic freaks!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  Because of you... look what happened to me! Look what I've become!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  But if you don't leave right now, the devils will find you. You'll be handed over to Reunion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Patriot's troops have completely pulled out of this area. If you're caught, I can't save you at that point.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  Then just let me die! I'd rather die than watch you monsters run rampant!
 </t>
   </si>
   <si>
@@ -1148,7 +1148,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  They are. Without them, we’d be dead already.
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  They are. Without them, we'd be dead already.
 </t>
   </si>
   <si>
@@ -1156,15 +1156,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ursus Infected"]  If they’re just trying to do the right thing, why are they still with Reunion? Why’d they do this to our homes?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ursus Infected"]  Why aren’t they rebelling? Why aren’t they walking out?! Why did they do all this even knowing we’ve been spat on, persecuted, and killed?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ursus Infected"]  Why didn’t your great guerrillas fight back against the patrolling devils? Why?!
+    <t xml:space="preserve">[name="Ursus Infected"]  If they're just trying to do the right thing, why are they still with Reunion? Why'd they do this to our homes?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  Why aren't they rebelling? Why aren't they walking out?! Why did they do all this even knowing we've been spat on, persecuted, and killed?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  Why didn't your great guerrillas fight back against the patrolling devils? Why?!
 </t>
   </si>
   <si>
@@ -1176,7 +1176,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Patriot can’t be everywhere at once.
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Patriot can't be everywhere at once.
 </t>
   </si>
   <si>
@@ -1188,11 +1188,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  That is the difference between Reunion’s thugs and Patriot’s guerrilla warriors. Patriot, and the Sarkaz as a whole, are much more disciplined than Reunion’s ranks.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ursus Infected"]  Where are they then?! Why aren’t they here?
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  That is the difference between Reunion's thugs and Patriot's guerrilla warriors. Patriot, and the Sarkaz as a whole, are much more disciplined than Reunion's ranks.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  Where are they then?! Why aren't they here?
 </t>
   </si>
   <si>
@@ -1200,11 +1200,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ursus Infected"]  How is that not their fault? If not for the guerrillas, they never would’ve turned against us like this, right?! They’re just out for revenge on the guerrillas!!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ...You’re wrong.
+    <t xml:space="preserve">[name="Ursus Infected"]  How is that not their fault? If not for the guerrillas, they never would've turned against us like this, right?! They're just out for revenge on the guerrillas!!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ...You're wrong.
 </t>
   </si>
   <si>
@@ -1216,7 +1216,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  No, they did more than that... One might even say they’re defending your dignity. I saw it with my own eyes.
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  No, they did more than that... One might even say they're defending your dignity. I saw it with my own eyes.
 </t>
   </si>
   <si>
@@ -1224,7 +1224,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Isn’t that right?
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Isn't that right?
 </t>
   </si>
   <si>
@@ -1244,7 +1244,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  And that’s even assuming we survive.
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  And that's even assuming we survive.
 </t>
   </si>
   <si>
@@ -1256,19 +1256,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ursus Infected"]  Cautus girl, look... Look! He’s Reunion!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ursus Infected"]  How can you believe anything coming from Reunion? And what about me? Am I supposed to buy into their bullshit now that I’m Infected?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ursus Infected"]  Look, the people you said wanted to murder us... aren’t they Reunion?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ursus Infected"]  Now that I’m Infected, is Reunion suddenly going to take me in and treat me better? How the hell am I supposed to know who’s who, and which one of you is going to kill me?
+    <t xml:space="preserve">[name="Ursus Infected"]  Cautus girl, look... Look! He's Reunion!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  How can you believe anything coming from Reunion? And what about me? Am I supposed to buy into their bullshit now that I'm Infected?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  Look, the people you said wanted to murder us... aren't they Reunion?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  Now that I'm Infected, is Reunion suddenly going to take me in and treat me better? How the hell am I supposed to know who's who, and which one of you is going to kill me?
 </t>
   </si>
   <si>
@@ -1280,11 +1280,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  (Dr. Kal’tsit?)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  (Don’t get worked up.)
+    <t xml:space="preserve">[name="Amiya"]  (Dr. Kal'tsit?)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  (Don't get worked up.)
 </t>
   </si>
   <si>
@@ -1304,7 +1304,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Are you... trying to eradicate Reunion completely?! Rhodes Island, you’re really no better...
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Are you... trying to eradicate Reunion completely?! Rhodes Island, you're really no better...
 </t>
   </si>
   <si>
@@ -1316,15 +1316,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  If we don’t deal with them, or at least hide, they’re going to find us and take us away...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Not to mention the regular Reunion patrols. We don’t have much time to find supplies!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  That’s why so many are starving, and short on medicine. There’s a lot of death among the people of Chernobog.
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  If we don't deal with them, or at least hide, they're going to find us and take us away...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Not to mention the regular Reunion patrols. We don't have much time to find supplies!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  That's why so many are starving, and short on medicine. There's a lot of death among the people of Chernobog.
 </t>
   </si>
   <si>
@@ -1348,15 +1348,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ursus Infected"]  Y-your accent... you’re from the capital of the Empire, aren’t you?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ursus Infected"]  But the way you speak, it’s so old-fashioned...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  You’re educated.
+    <t xml:space="preserve">[name="Ursus Infected"]  Y-your accent... you're from the capital of the Empire, aren't you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  But the way you speak, it's so old-fashioned...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You're educated.
 </t>
   </si>
   <si>
@@ -1364,7 +1364,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ursus Infected"]  It’s all gone now, thanks to you Infected.
+    <t xml:space="preserve">[name="Ursus Infected"]  It's all gone now, thanks to you Infected.
 </t>
   </si>
   <si>
@@ -1376,11 +1376,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ursus Infected"]  He’s... your employee?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  One of Rhodes Island’s functions is helping innocent Infected survive in a combat environment.
+    <t xml:space="preserve">[name="Ursus Infected"]  He's... your employee?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  One of Rhodes Island's functions is helping innocent Infected survive in a combat environment.
 </t>
   </si>
   <si>
@@ -1412,7 +1412,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ...never thought I’d see a day when Mon3tr was after me.
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  ...never thought I'd see a day when Mon3tr was after me.
 </t>
   </si>
   <si>
@@ -1452,11 +1452,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Doctor... Kal’tsit... I’m insulted!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  I can only rely on the words of eyewitnesses and victims. Since you claim to have guaranteed her right to life, then I have only the young lady’s testimony by which to adjudicate your claim.
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Doctor... Kal'tsit... I'm insulted!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I can only rely on the words of eyewitnesses and victims. Since you claim to have guaranteed her right to life, then I have only the young lady's testimony by which to adjudicate your claim.
 </t>
   </si>
   <si>
@@ -1468,11 +1468,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  She’s in a different position.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  You have power. You can use violence. It doesn’t matter what you did with that violence.
+    <t xml:space="preserve">[name="Kal'tsit"]  She's in a different position.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You have power. You can use violence. It doesn't matter what you did with that violence.
 </t>
   </si>
   <si>
@@ -1480,7 +1480,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  Amiya, it’s the Sarkaz.
+    <t xml:space="preserve">[name="Rosmontis"]  Amiya, it's the Sarkaz.
 </t>
   </si>
   <si>
@@ -1488,7 +1488,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ursus Infected"]  Couldn’t... but he...
+    <t xml:space="preserve">[name="Ursus Infected"]  Couldn't... but he...
 </t>
   </si>
   <si>
@@ -1496,11 +1496,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Dr. Kal’tsit...! The patrol is here! It’s not... it’s not the guerrillas! You can’t... Don’t let them...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ursus Infected"]  You’re not making any sense!
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Dr. Kal'tsit...! The patrol is here! It's not... it's not the guerrillas! You can't... Don't let them...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  You're not making any sense!
 </t>
   </si>
   <si>
@@ -1512,7 +1512,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Dr. Kal’tsit! Let me... stop the Sarkaz! Or at least... let me get them to go someplace else!
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Dr. Kal'tsit! Let me... stop the Sarkaz! Or at least... let me get them to go someplace else!
 </t>
   </si>
   <si>
@@ -1536,11 +1536,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Dr. Kal’tsit!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ursus Infected"]  No! He didn’t! He didn’t do anything wrong!
+    <t xml:space="preserve">[name="Rhodes Island Guard?"]  Dr. Kal'tsit!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Infected"]  No! He didn't! He didn't do anything wrong!
 </t>
   </si>
   <si>
@@ -1560,19 +1560,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Darn it... Dr. Kal’tsit! I knew it...!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Let’s go, Doctor!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Our next target is Reunion’s Sarkaz patrol team!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  I’m coming too.
+    <t xml:space="preserve">[name="Amiya"]  Darn it... Dr. Kal'tsit! I knew it...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Let's go, Doctor!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Our next target is Reunion's Sarkaz patrol team!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  I'm coming too.
 </t>
   </si>
   <si>
@@ -1580,11 +1580,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  You’re wrong about me. But I’ll protect you. I’ll get your revenge for you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  They’ll pay for what they did to you, and my family, and the common people. They’ll all pay, for all of it.
+    <t xml:space="preserve">[name="Rosmontis"]  You're wrong about me. But I'll protect you. I'll get your revenge for you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  They'll pay for what they did to you, and my family, and the common people. They'll all pay, for all of it.
 </t>
   </si>
   <si>
